--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2610499.395923181</v>
+        <v>-2612820.469001273</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5625041.408425024</v>
+        <v>5625041.408425028</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>210.6543024793039</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64.67263725582607</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.46362328943792</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>144.382259739151</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>58.15592375897353</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,64 +905,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>30.90898980184393</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>184.4856483234904</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,47 +1148,47 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>220.6450016938487</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>222.1008216780093</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>12.27404338834297</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>6.501501223066181</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417087</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.3630412092429</v>
@@ -1388,7 +1388,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I11" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I12" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.3537178997616</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.54821736810149</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S13" t="n">
         <v>193.2189102119588</v>
@@ -1625,7 +1625,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I14" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I15" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S16" t="n">
         <v>193.2189102119588</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>89.60104472960386</v>
       </c>
       <c r="U16" t="n">
-        <v>241.2065783678266</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I17" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I18" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>97.83310760955521</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T19" t="n">
         <v>220.3947739469271</v>
       </c>
       <c r="U19" t="n">
-        <v>201.1439395359719</v>
+        <v>201.306581957144</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>411.3630412092429</v>
       </c>
       <c r="H20" t="n">
-        <v>299.1273873230491</v>
+        <v>299.127387323049</v>
       </c>
       <c r="I20" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.2442400157247</v>
+        <v>119.2442400157278</v>
       </c>
       <c r="T20" t="n">
         <v>205.8498289850884</v>
@@ -2178,7 +2178,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I21" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>62.42518099463594</v>
       </c>
       <c r="D22" t="n">
-        <v>82.45891180186223</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>97.83310760955521</v>
       </c>
       <c r="S22" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>220.3947739469271</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.3630412092402</v>
+        <v>411.3630412092429</v>
       </c>
       <c r="H23" t="n">
         <v>299.1273873230491</v>
       </c>
       <c r="I23" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I24" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>94.9159261717142</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>193.2189102119588</v>
       </c>
       <c r="T25" t="n">
-        <v>161.9067078714945</v>
+        <v>220.3947739469271</v>
       </c>
       <c r="U25" t="n">
         <v>286.2226359673672</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I26" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I27" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0638790200134</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3055863904067</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V28" t="n">
-        <v>3.826731797111961</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I29" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>251.0304772033651</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I30" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>87.79092413477161</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>220.3947739469271</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>211.5961208576581</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I32" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I33" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D34" t="n">
-        <v>92.68666954346264</v>
+        <v>92.68666954346261</v>
       </c>
       <c r="E34" t="n">
-        <v>90.50515917181946</v>
+        <v>90.50515917181943</v>
       </c>
       <c r="F34" t="n">
-        <v>89.49224454818153</v>
+        <v>89.4922445481815</v>
       </c>
       <c r="G34" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H34" t="n">
-        <v>90.58624660553068</v>
+        <v>90.5862466055308</v>
       </c>
       <c r="I34" t="n">
-        <v>46.37678291565694</v>
+        <v>46.37678291565691</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.90430413480549</v>
+        <v>41.90430413480546</v>
       </c>
       <c r="S34" t="n">
-        <v>137.2901067372091</v>
+        <v>137.2901067372093</v>
       </c>
       <c r="T34" t="n">
         <v>164.4659704721774</v>
       </c>
       <c r="U34" t="n">
-        <v>230.2938324926178</v>
+        <v>230.2938324926176</v>
       </c>
       <c r="V34" t="n">
         <v>196.2088398490783</v>
@@ -3253,7 +3253,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.6558498773451</v>
+        <v>162.655849877345</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>326.8050381887308</v>
+        <v>326.8050381887309</v>
       </c>
       <c r="C35" t="n">
         <v>309.3440882962578</v>
@@ -3272,19 +3272,19 @@
         <v>298.7542381459332</v>
       </c>
       <c r="E35" t="n">
-        <v>326.001566597512</v>
+        <v>326.0015665975121</v>
       </c>
       <c r="F35" t="n">
         <v>350.9472422669617</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4342377344931</v>
+        <v>355.4342377344932</v>
       </c>
       <c r="H35" t="n">
         <v>243.1985838482994</v>
       </c>
       <c r="I35" t="n">
-        <v>2.661944262748811</v>
+        <v>2.661944262748804</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>195.1016737286154</v>
       </c>
       <c r="V35" t="n">
-        <v>271.8234549953851</v>
+        <v>271.8234549953852</v>
       </c>
       <c r="W35" t="n">
-        <v>293.3121652426632</v>
+        <v>293.3121652426633</v>
       </c>
       <c r="X35" t="n">
         <v>313.8022972037193</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.3091351813038</v>
+        <v>330.3091351813039</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I36" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D37" t="n">
-        <v>92.68666954346261</v>
+        <v>92.68666954346263</v>
       </c>
       <c r="E37" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181944</v>
       </c>
       <c r="F37" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818152</v>
       </c>
       <c r="G37" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H37" t="n">
-        <v>90.58624660553116</v>
+        <v>90.58624660553117</v>
       </c>
       <c r="I37" t="n">
-        <v>46.37678291565691</v>
+        <v>46.37678291565693</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90430413480546</v>
+        <v>41.90430413480549</v>
       </c>
       <c r="S37" t="n">
-        <v>137.2901067372091</v>
+        <v>137.2901067372096</v>
       </c>
       <c r="T37" t="n">
-        <v>164.4659704721771</v>
+        <v>164.4659704721774</v>
       </c>
       <c r="U37" t="n">
-        <v>230.2938324926182</v>
+        <v>230.2938324926176</v>
       </c>
       <c r="V37" t="n">
         <v>196.2088398490783</v>
@@ -3490,7 +3490,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y37" t="n">
-        <v>162.655849877345</v>
+        <v>162.6558498773451</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>326.8050381887309</v>
+        <v>326.8050381887308</v>
       </c>
       <c r="C38" t="n">
         <v>309.3440882962578</v>
@@ -3509,7 +3509,7 @@
         <v>298.7542381459332</v>
       </c>
       <c r="E38" t="n">
-        <v>326.0015665975121</v>
+        <v>326.001566597512</v>
       </c>
       <c r="F38" t="n">
         <v>350.9472422669617</v>
@@ -3521,7 +3521,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I38" t="n">
-        <v>2.661944262748818</v>
+        <v>2.66194426274879</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.3154365409781</v>
+        <v>63.31543654097807</v>
       </c>
       <c r="T38" t="n">
         <v>149.9210255103387</v>
@@ -3563,7 +3563,7 @@
         <v>271.8234549953852</v>
       </c>
       <c r="W38" t="n">
-        <v>293.3121652426633</v>
+        <v>293.3121652426632</v>
       </c>
       <c r="X38" t="n">
         <v>313.8022972037193</v>
@@ -3664,22 +3664,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D40" t="n">
-        <v>92.68666954346264</v>
+        <v>92.68666954346261</v>
       </c>
       <c r="E40" t="n">
-        <v>90.50515917181946</v>
+        <v>90.50515917181943</v>
       </c>
       <c r="F40" t="n">
-        <v>89.49224454818153</v>
+        <v>89.4922445481815</v>
       </c>
       <c r="G40" t="n">
-        <v>110.2949637497751</v>
+        <v>110.294963749775</v>
       </c>
       <c r="H40" t="n">
-        <v>90.58624660553119</v>
+        <v>90.58624660553116</v>
       </c>
       <c r="I40" t="n">
-        <v>46.37678291565694</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9043041348055</v>
+        <v>41.90430413480547</v>
       </c>
       <c r="S40" t="n">
-        <v>137.2901067372096</v>
+        <v>137.2901067372091</v>
       </c>
       <c r="T40" t="n">
-        <v>164.4659704721773</v>
+        <v>164.4659704721774</v>
       </c>
       <c r="U40" t="n">
-        <v>230.2938324926171</v>
+        <v>230.2938324926176</v>
       </c>
       <c r="V40" t="n">
         <v>196.2088398490783</v>
@@ -3727,7 +3727,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.6558498773451</v>
+        <v>162.655849877345</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I41" t="n">
-        <v>2.661944262748811</v>
+        <v>2.66194426274884</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.31543654097809</v>
+        <v>63.31543654097812</v>
       </c>
       <c r="T41" t="n">
-        <v>149.9210255103387</v>
+        <v>149.9210255103388</v>
       </c>
       <c r="U41" t="n">
         <v>195.1016737286154</v>
@@ -3901,22 +3901,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D43" t="n">
-        <v>92.68666954346264</v>
+        <v>92.68666954346267</v>
       </c>
       <c r="E43" t="n">
-        <v>90.50515917181946</v>
+        <v>90.50515917181949</v>
       </c>
       <c r="F43" t="n">
-        <v>89.49224454818153</v>
+        <v>89.49224454818156</v>
       </c>
       <c r="G43" t="n">
-        <v>110.294963749775</v>
+        <v>110.2949637497751</v>
       </c>
       <c r="H43" t="n">
-        <v>90.58624660553119</v>
+        <v>90.58624660553107</v>
       </c>
       <c r="I43" t="n">
-        <v>46.37678291565694</v>
+        <v>46.37678291565698</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90430413480549</v>
+        <v>41.90430413480552</v>
       </c>
       <c r="S43" t="n">
-        <v>137.2901067372096</v>
+        <v>137.2901067372091</v>
       </c>
       <c r="T43" t="n">
         <v>164.4659704721774</v>
@@ -3961,7 +3961,7 @@
         <v>230.5941948618413</v>
       </c>
       <c r="X43" t="n">
-        <v>169.7808519142874</v>
+        <v>169.7808519142875</v>
       </c>
       <c r="Y43" t="n">
         <v>162.6558498773451</v>
@@ -3989,7 +3989,7 @@
         <v>350.9472422669617</v>
       </c>
       <c r="G44" t="n">
-        <v>355.4342377344932</v>
+        <v>355.4342377344931</v>
       </c>
       <c r="H44" t="n">
         <v>243.1985838482994</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.31543654097807</v>
+        <v>63.31543654097881</v>
       </c>
       <c r="T44" t="n">
         <v>149.9210255103387</v>
@@ -4189,7 +4189,7 @@
         <v>164.4659704721774</v>
       </c>
       <c r="U46" t="n">
-        <v>230.2938324926176</v>
+        <v>230.2938324926178</v>
       </c>
       <c r="V46" t="n">
         <v>196.2088398490783</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>254.2858631377404</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
-        <v>247.340362388537</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.0600686093459</v>
+        <v>229.1873455876355</v>
       </c>
       <c r="C3" t="n">
-        <v>84.60703932821886</v>
+        <v>229.1873455876355</v>
       </c>
       <c r="D3" t="n">
-        <v>84.60703932821886</v>
+        <v>229.1873455876355</v>
       </c>
       <c r="E3" t="n">
-        <v>84.60703932821886</v>
+        <v>229.1873455876355</v>
       </c>
       <c r="F3" t="n">
-        <v>84.60703932821886</v>
+        <v>229.1873455876355</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.45652017025103</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4410,16 +4410,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>644.7991445581223</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>644.7991445581223</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>644.7991445581223</v>
       </c>
       <c r="W3" t="n">
-        <v>259.0600686093459</v>
+        <v>644.7991445581223</v>
       </c>
       <c r="X3" t="n">
-        <v>259.0600686093459</v>
+        <v>436.9476443525895</v>
       </c>
       <c r="Y3" t="n">
-        <v>259.0600686093459</v>
+        <v>229.1873455876355</v>
       </c>
     </row>
     <row r="4">
@@ -4519,13 +4519,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>454.2350688147492</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C6" t="n">
-        <v>454.2350688147492</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>932.8359536905919</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>932.8359536905919</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>932.8359536905919</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>932.8359536905919</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>697.6838454588492</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="W6" t="n">
-        <v>454.2350688147492</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X6" t="n">
-        <v>454.2350688147492</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y6" t="n">
-        <v>454.2350688147492</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="7">
@@ -4741,22 +4741,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>741.1834164259405</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>741.1834164259405</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>497.7346397818405</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>497.7346397818405</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>490.789139032637</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4829,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>741.1834164259405</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>741.1834164259405</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V8" t="n">
-        <v>741.1834164259405</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W8" t="n">
-        <v>741.1834164259405</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X8" t="n">
-        <v>741.1834164259405</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y8" t="n">
-        <v>741.1834164259405</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>272.1352367728036</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C9" t="n">
-        <v>272.1352367728036</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>272.1352367728036</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>951.6591318860474</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>951.6591318860474</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>723.4355136224365</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>723.4355136224365</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W9" t="n">
-        <v>479.9867369783365</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X9" t="n">
-        <v>272.1352367728036</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y9" t="n">
-        <v>272.1352367728036</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4981,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.113933790194</v>
+        <v>2397.113933790198</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.151416849782</v>
+        <v>2028.151416849786</v>
       </c>
       <c r="D11" t="n">
-        <v>1669.885718243032</v>
+        <v>1669.885718243036</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.097465644788</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F11" t="n">
-        <v>873.1115608551829</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G11" t="n">
-        <v>457.5933374115032</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H11" t="n">
         <v>155.4444613276152</v>
       </c>
       <c r="I11" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J11" t="n">
-        <v>354.4806329894531</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7243829858453</v>
+        <v>847.2071821646127</v>
       </c>
       <c r="L11" t="n">
-        <v>1428.296723114659</v>
+        <v>1642.779522293427</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.13078735983</v>
+        <v>2544.613586538597</v>
       </c>
       <c r="N11" t="n">
-        <v>3231.92547205716</v>
+        <v>3446.408271235928</v>
       </c>
       <c r="O11" t="n">
-        <v>4038.276983099601</v>
+        <v>4248.46882385291</v>
       </c>
       <c r="P11" t="n">
-        <v>4370.224238175482</v>
+        <v>4580.416078928791</v>
       </c>
       <c r="Q11" t="n">
-        <v>4781.521896611465</v>
+        <v>4781.521896611468</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.094392769723</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S11" t="n">
-        <v>4692.645665481109</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.716545294151</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.150406704893</v>
+        <v>4231.150406704896</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.087519361322</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.318864091208</v>
+        <v>3547.318864091211</v>
       </c>
       <c r="X11" t="n">
-        <v>3173.853105830128</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.713773854316</v>
+        <v>2783.71377385432</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I12" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J12" t="n">
-        <v>292.6837681104436</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K12" t="n">
-        <v>493.2003055554644</v>
+        <v>630.1907652109126</v>
       </c>
       <c r="L12" t="n">
-        <v>809.1420765831165</v>
+        <v>946.1325362385646</v>
       </c>
       <c r="M12" t="n">
         <v>1408.449918830965</v>
       </c>
       <c r="N12" t="n">
-        <v>1821.1749999935</v>
+        <v>1821.174999993499</v>
       </c>
       <c r="O12" t="n">
         <v>2176.518021669021</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.3818936041359</v>
+        <v>225.9121079561639</v>
       </c>
       <c r="C13" t="n">
-        <v>337.4457106762291</v>
+        <v>225.9121079561639</v>
       </c>
       <c r="D13" t="n">
-        <v>337.4457106762291</v>
+        <v>225.9121079561639</v>
       </c>
       <c r="E13" t="n">
-        <v>337.4457106762291</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F13" t="n">
-        <v>337.4457106762291</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G13" t="n">
-        <v>169.5429154999414</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H13" t="n">
-        <v>169.5429154999414</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I13" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J13" t="n">
         <v>127.528778430331</v>
       </c>
       <c r="K13" t="n">
-        <v>308.7467211677957</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L13" t="n">
         <v>596.1697313207187</v>
@@ -5221,28 +5221,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R13" t="n">
-        <v>1762.757492825128</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S13" t="n">
-        <v>1567.586876449412</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="T13" t="n">
-        <v>1567.586876449412</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="U13" t="n">
-        <v>1278.473102745001</v>
+        <v>1179.651781927268</v>
       </c>
       <c r="V13" t="n">
-        <v>1023.788614539114</v>
+        <v>924.9672937213815</v>
       </c>
       <c r="W13" t="n">
-        <v>734.3714445021533</v>
+        <v>635.5501236844209</v>
       </c>
       <c r="X13" t="n">
-        <v>506.3818936041359</v>
+        <v>407.5605727864036</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.3818936041359</v>
+        <v>407.5605727864036</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.113933790197</v>
+        <v>2397.113933790196</v>
       </c>
       <c r="C14" t="n">
         <v>2028.151416849785</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.885718243035</v>
+        <v>1669.885718243034</v>
       </c>
       <c r="E14" t="n">
         <v>1284.09746564479</v>
@@ -5273,55 +5273,55 @@
         <v>155.4444613276152</v>
       </c>
       <c r="I14" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J14" t="n">
-        <v>248.0594737227673</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K14" t="n">
-        <v>847.2071821646126</v>
+        <v>847.2071821646127</v>
       </c>
       <c r="L14" t="n">
-        <v>1642.779522293427</v>
+        <v>1631.840766554065</v>
       </c>
       <c r="M14" t="n">
-        <v>2099.595188380693</v>
+        <v>2533.674830799236</v>
       </c>
       <c r="N14" t="n">
-        <v>3001.389873078023</v>
+        <v>3435.469515496566</v>
       </c>
       <c r="O14" t="n">
-        <v>3807.741384120464</v>
+        <v>3864.828847088889</v>
       </c>
       <c r="P14" t="n">
-        <v>4458.269360286113</v>
+        <v>4515.356823254538</v>
       </c>
       <c r="Q14" t="n">
-        <v>4716.462640937212</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.094392769723</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S14" t="n">
-        <v>4692.645665481109</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T14" t="n">
-        <v>4484.716545294151</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.150406704893</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.087519361322</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.318864091208</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X14" t="n">
-        <v>3173.853105830128</v>
+        <v>3173.85310583013</v>
       </c>
       <c r="Y14" t="n">
-        <v>2783.713773854319</v>
+        <v>2783.713773854318</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I15" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J15" t="n">
-        <v>167.8536431234389</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K15" t="n">
-        <v>368.3701805684597</v>
+        <v>368.3701805684598</v>
       </c>
       <c r="L15" t="n">
-        <v>842.8385274502008</v>
+        <v>684.3119515961118</v>
       </c>
       <c r="M15" t="n">
-        <v>1230.884540401126</v>
+        <v>1438.861055259616</v>
       </c>
       <c r="N15" t="n">
-        <v>1643.60962156366</v>
+        <v>1851.58613642215</v>
       </c>
       <c r="O15" t="n">
-        <v>1998.952643239181</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P15" t="n">
-        <v>2264.813679484683</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q15" t="n">
         <v>2600.592059963695</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.0496306106843</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0496306106843</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D16" t="n">
-        <v>559.0496306106843</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E16" t="n">
-        <v>559.0496306106843</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F16" t="n">
-        <v>412.1596831127739</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G16" t="n">
-        <v>244.2568879364863</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H16" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I16" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J16" t="n">
         <v>127.528778430331</v>
       </c>
       <c r="K16" t="n">
-        <v>308.7467211677957</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L16" t="n">
         <v>596.1697313207187</v>
@@ -5458,28 +5458,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R16" t="n">
-        <v>1762.757492825128</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S16" t="n">
-        <v>1567.586876449412</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="T16" t="n">
-        <v>1567.586876449412</v>
+        <v>1378.259449844201</v>
       </c>
       <c r="U16" t="n">
-        <v>1323.943867997062</v>
+        <v>1089.14567613979</v>
       </c>
       <c r="V16" t="n">
-        <v>1069.259379791175</v>
+        <v>834.4611879339027</v>
       </c>
       <c r="W16" t="n">
-        <v>779.8422097542144</v>
+        <v>545.044017896942</v>
       </c>
       <c r="X16" t="n">
-        <v>779.8422097542144</v>
+        <v>317.0544669989246</v>
       </c>
       <c r="Y16" t="n">
-        <v>559.0496306106843</v>
+        <v>96.26188785539451</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.113933790195</v>
+        <v>2397.113933790197</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.151416849784</v>
+        <v>2028.151416849786</v>
       </c>
       <c r="D17" t="n">
-        <v>1669.885718243033</v>
+        <v>1669.885718243035</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.097465644789</v>
+        <v>1284.097465644792</v>
       </c>
       <c r="F17" t="n">
-        <v>873.1115608551814</v>
+        <v>873.1115608551841</v>
       </c>
       <c r="G17" t="n">
-        <v>457.5933374115017</v>
+        <v>457.5933374115043</v>
       </c>
       <c r="H17" t="n">
         <v>155.4444613276152</v>
       </c>
       <c r="I17" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J17" t="n">
-        <v>415.4651227431203</v>
+        <v>415.4651227431204</v>
       </c>
       <c r="K17" t="n">
         <v>1014.612831184966</v>
       </c>
       <c r="L17" t="n">
-        <v>1810.18517131378</v>
+        <v>1396.700568908834</v>
       </c>
       <c r="M17" t="n">
-        <v>2654.715362191233</v>
+        <v>2298.534633154004</v>
       </c>
       <c r="N17" t="n">
-        <v>3123.536591720699</v>
+        <v>3200.329317851335</v>
       </c>
       <c r="O17" t="n">
-        <v>3929.88810276314</v>
+        <v>4006.680828893775</v>
       </c>
       <c r="P17" t="n">
-        <v>4580.416078928788</v>
+        <v>4338.628083969656</v>
       </c>
       <c r="Q17" t="n">
-        <v>4781.521896611465</v>
+        <v>4749.92574240564</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.094392769723</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.645665481109</v>
+        <v>4692.645665481111</v>
       </c>
       <c r="T17" t="n">
-        <v>4484.716545294151</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.150406704894</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.087519361323</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.318864091209</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X17" t="n">
-        <v>3173.853105830129</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y17" t="n">
-        <v>2783.713773854317</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I18" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J18" t="n">
-        <v>167.8536431234389</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K18" t="n">
-        <v>368.3701805684597</v>
+        <v>630.1907652109126</v>
       </c>
       <c r="L18" t="n">
-        <v>684.3119515961117</v>
+        <v>946.1325362385646</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.357964547037</v>
+        <v>1334.178549189489</v>
       </c>
       <c r="N18" t="n">
-        <v>1485.083045709571</v>
+        <v>1746.903630352024</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.929158097672</v>
+        <v>2102.246652027545</v>
       </c>
       <c r="P18" t="n">
         <v>2472.790194343173</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>581.0139595419821</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="C19" t="n">
-        <v>412.0777766140752</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D19" t="n">
-        <v>412.0777766140752</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E19" t="n">
-        <v>264.1646830316821</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1646830316821</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G19" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H19" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I19" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J19" t="n">
         <v>127.528778430331</v>
       </c>
       <c r="K19" t="n">
-        <v>308.7467211677957</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L19" t="n">
         <v>596.1697313207187</v>
@@ -5695,28 +5695,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R19" t="n">
-        <v>1663.936172007395</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S19" t="n">
-        <v>1663.936172007395</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="T19" t="n">
-        <v>1441.315188222621</v>
+        <v>1246.144571846905</v>
       </c>
       <c r="U19" t="n">
-        <v>1238.139491721639</v>
+        <v>1042.804590072012</v>
       </c>
       <c r="V19" t="n">
-        <v>983.455003515752</v>
+        <v>788.120101866125</v>
       </c>
       <c r="W19" t="n">
-        <v>983.455003515752</v>
+        <v>498.7029318291643</v>
       </c>
       <c r="X19" t="n">
-        <v>983.455003515752</v>
+        <v>498.7029318291643</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.6624243722218</v>
+        <v>277.9103526856342</v>
       </c>
     </row>
     <row r="20">
@@ -5747,34 +5747,34 @@
         <v>155.4444613276152</v>
       </c>
       <c r="I20" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J20" t="n">
-        <v>248.0594737227673</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K20" t="n">
-        <v>847.2071821646126</v>
+        <v>526.3032237191596</v>
       </c>
       <c r="L20" t="n">
-        <v>1229.294919888481</v>
+        <v>1321.875563847974</v>
       </c>
       <c r="M20" t="n">
-        <v>2131.128984133651</v>
+        <v>2223.709628093144</v>
       </c>
       <c r="N20" t="n">
-        <v>3032.923668830982</v>
+        <v>2848.285495293142</v>
       </c>
       <c r="O20" t="n">
-        <v>3839.275179873423</v>
+        <v>3654.637006335583</v>
       </c>
       <c r="P20" t="n">
-        <v>4489.803156039071</v>
+        <v>4305.164982501232</v>
       </c>
       <c r="Q20" t="n">
-        <v>4716.462640937212</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.094392769723</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S20" t="n">
         <v>4692.645665481112</v>
@@ -5826,25 +5826,25 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I21" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J21" t="n">
-        <v>167.8536431234389</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K21" t="n">
-        <v>368.3701805684597</v>
+        <v>368.3701805684598</v>
       </c>
       <c r="L21" t="n">
-        <v>684.3119515961117</v>
+        <v>684.3119515961118</v>
       </c>
       <c r="M21" t="n">
         <v>1072.357964547037</v>
       </c>
       <c r="N21" t="n">
-        <v>1851.586136422151</v>
+        <v>1485.083045709571</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.929158097672</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P21" t="n">
         <v>2472.790194343173</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>474.3567590385891</v>
+        <v>159.3176262338147</v>
       </c>
       <c r="C22" t="n">
-        <v>474.3567590385891</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D22" t="n">
-        <v>391.0649289356979</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E22" t="n">
-        <v>243.1518353533048</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F22" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G22" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H22" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I22" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J22" t="n">
         <v>127.528778430331</v>
       </c>
       <c r="K22" t="n">
-        <v>308.7467211677957</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L22" t="n">
         <v>596.1697313207187</v>
@@ -5932,28 +5932,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R22" t="n">
-        <v>1663.936172007395</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S22" t="n">
-        <v>1468.765555631679</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="T22" t="n">
-        <v>1246.144571846905</v>
+        <v>1441.315188222621</v>
       </c>
       <c r="U22" t="n">
-        <v>957.0307981424933</v>
+        <v>1152.20141451821</v>
       </c>
       <c r="V22" t="n">
-        <v>702.3463099366064</v>
+        <v>897.5169263123227</v>
       </c>
       <c r="W22" t="n">
-        <v>702.3463099366064</v>
+        <v>608.0997562753621</v>
       </c>
       <c r="X22" t="n">
-        <v>474.3567590385891</v>
+        <v>380.1102053773448</v>
       </c>
       <c r="Y22" t="n">
-        <v>474.3567590385891</v>
+        <v>159.3176262338147</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.113933790194</v>
+        <v>2397.113933790197</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.151416849782</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D23" t="n">
-        <v>1669.885718243032</v>
+        <v>1669.885718243035</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.097465644788</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F23" t="n">
-        <v>873.1115608551802</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G23" t="n">
-        <v>457.5933374115032</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H23" t="n">
         <v>155.4444613276152</v>
       </c>
       <c r="I23" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J23" t="n">
-        <v>415.4651227431203</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K23" t="n">
-        <v>1014.612831184966</v>
+        <v>847.2071821646127</v>
       </c>
       <c r="L23" t="n">
-        <v>1810.18517131378</v>
+        <v>1642.779522293427</v>
       </c>
       <c r="M23" t="n">
-        <v>2267.000837401046</v>
+        <v>2099.595188380693</v>
       </c>
       <c r="N23" t="n">
-        <v>3168.795522098376</v>
+        <v>3001.389873078023</v>
       </c>
       <c r="O23" t="n">
-        <v>3975.147033140817</v>
+        <v>3807.741384120464</v>
       </c>
       <c r="P23" t="n">
-        <v>4307.094288216698</v>
+        <v>4458.269360286113</v>
       </c>
       <c r="Q23" t="n">
-        <v>4718.391946652681</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R23" t="n">
-        <v>4813.094392769723</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S23" t="n">
-        <v>4692.645665481109</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T23" t="n">
-        <v>4484.716545294151</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.150406704893</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.087519361322</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.318864091208</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X23" t="n">
-        <v>3173.853105830128</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y23" t="n">
-        <v>2783.713773854316</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I24" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J24" t="n">
-        <v>167.8536431234389</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K24" t="n">
-        <v>630.1907652109124</v>
+        <v>368.3701805684598</v>
       </c>
       <c r="L24" t="n">
-        <v>946.1325362385645</v>
+        <v>684.3119515961118</v>
       </c>
       <c r="M24" t="n">
-        <v>1334.178549189489</v>
+        <v>1072.357964547037</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.903630352024</v>
+        <v>1505.896859039962</v>
       </c>
       <c r="O24" t="n">
-        <v>2206.929158097672</v>
+        <v>1861.239880715483</v>
       </c>
       <c r="P24" t="n">
-        <v>2472.790194343173</v>
+        <v>2442.379057914522</v>
       </c>
       <c r="Q24" t="n">
-        <v>2600.592059963695</v>
+        <v>2570.180923535044</v>
       </c>
       <c r="R24" t="n">
         <v>2600.592059963695</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="C25" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D25" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E25" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F25" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G25" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H25" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I25" t="n">
-        <v>96.26188785539445</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J25" t="n">
         <v>127.528778430331</v>
       </c>
       <c r="K25" t="n">
-        <v>308.7467211677957</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L25" t="n">
         <v>596.1697313207187</v>
@@ -6169,28 +6169,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R25" t="n">
-        <v>1663.936172007395</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S25" t="n">
-        <v>1468.765555631679</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="T25" t="n">
-        <v>1305.223426468554</v>
+        <v>1246.144571846905</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.109652764142</v>
+        <v>957.0307981424935</v>
       </c>
       <c r="V25" t="n">
-        <v>1016.109652764142</v>
+        <v>702.3463099366066</v>
       </c>
       <c r="W25" t="n">
-        <v>726.6924827271816</v>
+        <v>412.929139899646</v>
       </c>
       <c r="X25" t="n">
-        <v>498.7029318291643</v>
+        <v>412.929139899646</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.9103526856342</v>
+        <v>192.1365607561159</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2397.113933790197</v>
       </c>
       <c r="C26" t="n">
-        <v>2028.151416849786</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D26" t="n">
         <v>1669.885718243035</v>
@@ -6212,64 +6212,64 @@
         <v>1284.097465644791</v>
       </c>
       <c r="F26" t="n">
-        <v>873.1115608551834</v>
+        <v>873.1115608551841</v>
       </c>
       <c r="G26" t="n">
-        <v>457.5933374115037</v>
+        <v>457.5933374115039</v>
       </c>
       <c r="H26" t="n">
-        <v>155.4444613276157</v>
+        <v>155.4444613276152</v>
       </c>
       <c r="I26" t="n">
-        <v>96.26188785539495</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J26" t="n">
-        <v>415.4651227431208</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K26" t="n">
-        <v>1014.612831184966</v>
+        <v>747.1171170639445</v>
       </c>
       <c r="L26" t="n">
-        <v>1810.18517131378</v>
+        <v>1542.689457192759</v>
       </c>
       <c r="M26" t="n">
-        <v>2712.019235558951</v>
+        <v>2444.523521437929</v>
       </c>
       <c r="N26" t="n">
-        <v>3231.925472057185</v>
+        <v>2913.344750967395</v>
       </c>
       <c r="O26" t="n">
-        <v>4038.276983099626</v>
+        <v>3719.696262009837</v>
       </c>
       <c r="P26" t="n">
-        <v>4370.224238175507</v>
+        <v>4370.224238175485</v>
       </c>
       <c r="Q26" t="n">
-        <v>4781.52189661149</v>
+        <v>4781.521896611468</v>
       </c>
       <c r="R26" t="n">
-        <v>4813.094392769747</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S26" t="n">
-        <v>4692.645665481134</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T26" t="n">
-        <v>4484.716545294175</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U26" t="n">
-        <v>4231.150406704917</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V26" t="n">
-        <v>3900.087519361347</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W26" t="n">
-        <v>3547.318864091233</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X26" t="n">
-        <v>3173.853105830153</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y26" t="n">
-        <v>2783.713773854341</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="27">
@@ -6279,58 +6279,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>971.8194585299822</v>
+        <v>971.8194585299817</v>
       </c>
       <c r="C27" t="n">
-        <v>797.3664292488552</v>
+        <v>797.3664292488547</v>
       </c>
       <c r="D27" t="n">
-        <v>648.4320195876039</v>
+        <v>648.4320195876035</v>
       </c>
       <c r="E27" t="n">
-        <v>489.1945645821485</v>
+        <v>489.194564582148</v>
       </c>
       <c r="F27" t="n">
-        <v>342.6600066090334</v>
+        <v>342.660006609033</v>
       </c>
       <c r="G27" t="n">
-        <v>206.0583967051679</v>
+        <v>206.0583967051674</v>
       </c>
       <c r="H27" t="n">
-        <v>113.253000414364</v>
+        <v>113.2530004143635</v>
       </c>
       <c r="I27" t="n">
-        <v>96.26188785539495</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J27" t="n">
-        <v>272.5361491935666</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K27" t="n">
-        <v>734.8732712810402</v>
+        <v>368.3701805684598</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.815042308692</v>
+        <v>684.3119515961118</v>
       </c>
       <c r="M27" t="n">
-        <v>1438.861055259617</v>
+        <v>1072.357964547037</v>
       </c>
       <c r="N27" t="n">
-        <v>1851.586136422151</v>
+        <v>1643.60962156366</v>
       </c>
       <c r="O27" t="n">
-        <v>2206.929158097673</v>
+        <v>1998.952643239181</v>
       </c>
       <c r="P27" t="n">
-        <v>2472.790194343174</v>
+        <v>2264.813679484683</v>
       </c>
       <c r="Q27" t="n">
-        <v>2600.592059963696</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R27" t="n">
-        <v>2600.592059963696</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="S27" t="n">
-        <v>2466.723959711525</v>
+        <v>2466.723959711524</v>
       </c>
       <c r="T27" t="n">
         <v>2273.119597776097</v>
@@ -6342,7 +6342,7 @@
         <v>1809.883951248738</v>
       </c>
       <c r="W27" t="n">
-        <v>1555.646594520537</v>
+        <v>1555.646594520536</v>
       </c>
       <c r="X27" t="n">
         <v>1347.795094315004</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3884.806475050863</v>
+        <v>414.7575445408908</v>
       </c>
       <c r="C28" t="n">
-        <v>3715.870292122956</v>
+        <v>245.8213616129838</v>
       </c>
       <c r="D28" t="n">
-        <v>3565.753652710621</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E28" t="n">
-        <v>3417.840559128228</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F28" t="n">
-        <v>3417.840559128228</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G28" t="n">
-        <v>3249.93776395194</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.93776395194</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I28" t="n">
-        <v>3146.598787800014</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J28" t="n">
-        <v>3177.86567837495</v>
+        <v>127.528778430331</v>
       </c>
       <c r="K28" t="n">
-        <v>3359.083621112415</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L28" t="n">
-        <v>3646.506631265338</v>
+        <v>596.1697313207187</v>
       </c>
       <c r="M28" t="n">
-        <v>3959.943018886376</v>
+        <v>909.6061189417568</v>
       </c>
       <c r="N28" t="n">
-        <v>4271.361206196412</v>
+        <v>1221.024306251793</v>
       </c>
       <c r="O28" t="n">
-        <v>4542.990011156964</v>
+        <v>1492.653111212345</v>
       </c>
       <c r="P28" t="n">
-        <v>4751.89469689793</v>
+        <v>1701.557796953311</v>
       </c>
       <c r="Q28" t="n">
-        <v>4813.094392769747</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="R28" t="n">
-        <v>4714.273071952015</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S28" t="n">
-        <v>4519.102455576299</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="T28" t="n">
-        <v>4519.102455576299</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="U28" t="n">
-        <v>4519.102455576299</v>
+        <v>1179.651781927268</v>
       </c>
       <c r="V28" t="n">
-        <v>4515.23706992265</v>
+        <v>924.9672937213815</v>
       </c>
       <c r="W28" t="n">
-        <v>4515.23706992265</v>
+        <v>635.5501236844209</v>
       </c>
       <c r="X28" t="n">
-        <v>4287.247519024633</v>
+        <v>635.5501236844209</v>
       </c>
       <c r="Y28" t="n">
-        <v>4066.454939881103</v>
+        <v>414.7575445408908</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2397.113933790198</v>
+        <v>2397.113933790197</v>
       </c>
       <c r="C29" t="n">
         <v>2028.151416849785</v>
@@ -6446,43 +6446,43 @@
         <v>1669.885718243035</v>
       </c>
       <c r="E29" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F29" t="n">
-        <v>873.1115608551829</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G29" t="n">
-        <v>457.5933374115032</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H29" t="n">
-        <v>155.4444613276153</v>
+        <v>155.4444613276152</v>
       </c>
       <c r="I29" t="n">
         <v>96.26188785539451</v>
       </c>
       <c r="J29" t="n">
-        <v>248.0594737227673</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K29" t="n">
-        <v>526.3032237191596</v>
+        <v>847.2071821646127</v>
       </c>
       <c r="L29" t="n">
-        <v>1109.716002024895</v>
+        <v>1229.294919888481</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.550066270065</v>
+        <v>2131.128984133651</v>
       </c>
       <c r="N29" t="n">
-        <v>2913.344750967396</v>
+        <v>3032.923668830982</v>
       </c>
       <c r="O29" t="n">
-        <v>3719.696262009837</v>
+        <v>3654.637006335583</v>
       </c>
       <c r="P29" t="n">
-        <v>4370.224238175485</v>
+        <v>4305.164982501232</v>
       </c>
       <c r="Q29" t="n">
-        <v>4781.521896611468</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R29" t="n">
         <v>4813.094392769725</v>
@@ -6500,7 +6500,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.31886409121</v>
+        <v>3547.318864091211</v>
       </c>
       <c r="X29" t="n">
         <v>3173.853105830131</v>
@@ -6540,28 +6540,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J30" t="n">
-        <v>292.6837681104437</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K30" t="n">
-        <v>493.2003055554644</v>
+        <v>368.3701805684598</v>
       </c>
       <c r="L30" t="n">
-        <v>809.1420765831165</v>
+        <v>684.3119515961118</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.188089534041</v>
+        <v>1072.357964547037</v>
       </c>
       <c r="N30" t="n">
-        <v>1821.1749999935</v>
+        <v>1485.083045709571</v>
       </c>
       <c r="O30" t="n">
-        <v>2176.518021669021</v>
+        <v>1891.651017144134</v>
       </c>
       <c r="P30" t="n">
-        <v>2442.379057914522</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q30" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R30" t="n">
         <v>2600.592059963695</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.9395890016285</v>
+        <v>265.1980707833014</v>
       </c>
       <c r="C31" t="n">
-        <v>184.9395890016285</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D31" t="n">
         <v>96.26188785539451</v>
@@ -6643,28 +6643,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R31" t="n">
-        <v>1663.936172007395</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="S31" t="n">
-        <v>1468.765555631679</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="T31" t="n">
-        <v>1246.144571846905</v>
+        <v>1540.136509040354</v>
       </c>
       <c r="U31" t="n">
-        <v>957.0307981424933</v>
+        <v>1251.022735335942</v>
       </c>
       <c r="V31" t="n">
-        <v>702.3463099366064</v>
+        <v>996.3382471300553</v>
       </c>
       <c r="W31" t="n">
-        <v>412.9291398996458</v>
+        <v>706.9210770930947</v>
       </c>
       <c r="X31" t="n">
-        <v>184.9395890016285</v>
+        <v>478.9315261950774</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.9395890016285</v>
+        <v>265.1980707833014</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1284.097465644791</v>
       </c>
       <c r="F32" t="n">
-        <v>873.111560855183</v>
+        <v>873.1115608551841</v>
       </c>
       <c r="G32" t="n">
-        <v>457.5933374115033</v>
+        <v>457.5933374115039</v>
       </c>
       <c r="H32" t="n">
         <v>155.4444613276153</v>
@@ -6698,7 +6698,7 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J32" t="n">
-        <v>415.4651227431203</v>
+        <v>415.4651227431204</v>
       </c>
       <c r="K32" t="n">
         <v>1014.612831184966</v>
@@ -6710,7 +6710,7 @@
         <v>2267.000837401046</v>
       </c>
       <c r="N32" t="n">
-        <v>2848.285495293143</v>
+        <v>2848.285495293142</v>
       </c>
       <c r="O32" t="n">
         <v>3654.637006335583</v>
@@ -6737,7 +6737,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.318864091211</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X32" t="n">
         <v>3173.853105830131</v>
@@ -6777,19 +6777,19 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J33" t="n">
-        <v>292.6837681104437</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K33" t="n">
-        <v>493.2003055554644</v>
+        <v>368.3701805684598</v>
       </c>
       <c r="L33" t="n">
-        <v>842.8385274502008</v>
+        <v>684.3119515961118</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.884540401126</v>
+        <v>1072.357964547037</v>
       </c>
       <c r="N33" t="n">
-        <v>1643.60962156366</v>
+        <v>1485.083045709571</v>
       </c>
       <c r="O33" t="n">
         <v>1998.952643239181</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.8983365001465</v>
+        <v>733.8983365001466</v>
       </c>
       <c r="C34" t="n">
-        <v>621.4558944558252</v>
+        <v>621.4558944558253</v>
       </c>
       <c r="D34" t="n">
-        <v>527.832995927075</v>
+        <v>527.8329959270751</v>
       </c>
       <c r="E34" t="n">
-        <v>436.4136432282675</v>
+        <v>436.4136432282676</v>
       </c>
       <c r="F34" t="n">
-        <v>346.0174366139427</v>
+        <v>346.0174366139429</v>
       </c>
       <c r="G34" t="n">
-        <v>234.6083823212406</v>
+        <v>234.6083823212407</v>
       </c>
       <c r="H34" t="n">
-        <v>143.1071231237349</v>
+        <v>143.1071231237348</v>
       </c>
       <c r="I34" t="n">
         <v>96.26188785539451</v>
       </c>
       <c r="J34" t="n">
-        <v>182.8982938703332</v>
+        <v>182.8982938703333</v>
       </c>
       <c r="K34" t="n">
-        <v>419.4857520478002</v>
+        <v>419.4857520478004</v>
       </c>
       <c r="L34" t="n">
-        <v>762.2782776407254</v>
+        <v>762.2782776407256</v>
       </c>
       <c r="M34" t="n">
         <v>1131.084180701766</v>
@@ -6886,7 +6886,7 @@
         <v>2024.709160918869</v>
       </c>
       <c r="T34" t="n">
-        <v>1858.58191801768</v>
+        <v>1858.581918017679</v>
       </c>
       <c r="U34" t="n">
         <v>1625.961885196853</v>
@@ -6901,7 +6901,7 @@
         <v>1023.351898706745</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.0530604468006</v>
+        <v>859.0530604468007</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>1671.89496923697</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.123011513805</v>
+        <v>1370.123011513806</v>
       </c>
       <c r="E35" t="n">
-        <v>1040.828499799146</v>
+        <v>1040.828499799147</v>
       </c>
       <c r="F35" t="n">
-        <v>686.3363358931242</v>
+        <v>686.3363358931249</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3118533330301</v>
+        <v>327.3118533330303</v>
       </c>
       <c r="H35" t="n">
-        <v>81.65671813272796</v>
+        <v>81.65671813272795</v>
       </c>
       <c r="I35" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J35" t="n">
-        <v>398.1711204318186</v>
+        <v>398.1711204318187</v>
       </c>
       <c r="K35" t="n">
-        <v>704.4275791068812</v>
+        <v>676.414870428211</v>
       </c>
       <c r="L35" t="n">
-        <v>1499.999919235695</v>
+        <v>1085.721372078748</v>
       </c>
       <c r="M35" t="n">
-        <v>1956.815585322961</v>
+        <v>1987.555436323918</v>
       </c>
       <c r="N35" t="n">
-        <v>2425.636814852428</v>
+        <v>2889.350121021248</v>
       </c>
       <c r="O35" t="n">
-        <v>2854.996146444751</v>
+        <v>3318.709452613572</v>
       </c>
       <c r="P35" t="n">
-        <v>3505.524122610399</v>
+        <v>3650.656707689453</v>
       </c>
       <c r="Q35" t="n">
-        <v>3916.821781046382</v>
+        <v>3851.76252537213</v>
       </c>
       <c r="R35" t="n">
-        <v>3948.394277204639</v>
+        <v>3948.39427720464</v>
       </c>
       <c r="S35" t="n">
-        <v>3884.439290799611</v>
+        <v>3884.439290799612</v>
       </c>
       <c r="T35" t="n">
         <v>3733.003911496239</v>
@@ -6980,7 +6980,7 @@
         <v>2648.115435566559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2314.469844474332</v>
+        <v>2314.469844474333</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H36" t="n">
-        <v>95.95899810306182</v>
+        <v>95.9589981030618</v>
       </c>
       <c r="I36" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J36" t="n">
-        <v>150.5596408121372</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K36" t="n">
-        <v>351.0761782571579</v>
+        <v>351.0761782571581</v>
       </c>
       <c r="L36" t="n">
-        <v>667.01794928481</v>
+        <v>1033.521039997389</v>
       </c>
       <c r="M36" t="n">
-        <v>1055.063962235735</v>
+        <v>1421.567052948314</v>
       </c>
       <c r="N36" t="n">
         <v>1834.292134110849</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>716.6043341888451</v>
+        <v>716.6043341888452</v>
       </c>
       <c r="C37" t="n">
-        <v>604.1618921445238</v>
+        <v>604.1618921445239</v>
       </c>
       <c r="D37" t="n">
-        <v>510.5389936157736</v>
+        <v>510.5389936157737</v>
       </c>
       <c r="E37" t="n">
-        <v>419.1196409169661</v>
+        <v>419.1196409169662</v>
       </c>
       <c r="F37" t="n">
         <v>328.7234343026414</v>
       </c>
       <c r="G37" t="n">
-        <v>217.3143800099393</v>
+        <v>217.3143800099394</v>
       </c>
       <c r="H37" t="n">
         <v>125.8131208124331</v>
@@ -7093,10 +7093,10 @@
         <v>78.96788554409279</v>
       </c>
       <c r="J37" t="n">
-        <v>165.6042915590316</v>
+        <v>165.6042915590315</v>
       </c>
       <c r="K37" t="n">
-        <v>402.1917497364986</v>
+        <v>402.1917497364987</v>
       </c>
       <c r="L37" t="n">
         <v>744.9842753294238</v>
@@ -7108,13 +7108,13 @@
         <v>1480.577881140502</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.576201541056</v>
+        <v>1807.576201541057</v>
       </c>
       <c r="P37" t="n">
         <v>2071.850402722025</v>
       </c>
       <c r="Q37" t="n">
-        <v>2188.419614033844</v>
+        <v>2188.419614033845</v>
       </c>
       <c r="R37" t="n">
         <v>2146.092034099698</v>
@@ -7138,7 +7138,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.7590581354992</v>
+        <v>841.7590581354993</v>
       </c>
     </row>
     <row r="38">
@@ -7160,55 +7160,55 @@
         <v>1040.828499799147</v>
       </c>
       <c r="F38" t="n">
-        <v>686.3363358931249</v>
+        <v>686.3363358931247</v>
       </c>
       <c r="G38" t="n">
         <v>327.3118533330303</v>
       </c>
       <c r="H38" t="n">
-        <v>81.65671813272796</v>
+        <v>81.65671813272793</v>
       </c>
       <c r="I38" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J38" t="n">
-        <v>398.1711204318187</v>
+        <v>230.7654714114657</v>
       </c>
       <c r="K38" t="n">
-        <v>676.414870428211</v>
+        <v>509.009221407858</v>
       </c>
       <c r="L38" t="n">
-        <v>1058.502608152079</v>
+        <v>891.0969591317262</v>
       </c>
       <c r="M38" t="n">
-        <v>1960.336672397249</v>
+        <v>1347.912625218992</v>
       </c>
       <c r="N38" t="n">
-        <v>2429.157901926716</v>
+        <v>2249.707309916323</v>
       </c>
       <c r="O38" t="n">
-        <v>2858.517233519039</v>
+        <v>3056.058820958764</v>
       </c>
       <c r="P38" t="n">
-        <v>3440.464866936147</v>
+        <v>3505.524122610399</v>
       </c>
       <c r="Q38" t="n">
-        <v>3851.76252537213</v>
+        <v>3916.821781046382</v>
       </c>
       <c r="R38" t="n">
-        <v>3948.39427720464</v>
+        <v>3948.394277204639</v>
       </c>
       <c r="S38" t="n">
-        <v>3884.439290799612</v>
+        <v>3884.439290799611</v>
       </c>
       <c r="T38" t="n">
         <v>3733.003911496239</v>
       </c>
       <c r="U38" t="n">
-        <v>3535.931513790567</v>
+        <v>3535.931513790566</v>
       </c>
       <c r="V38" t="n">
-        <v>3261.362367330582</v>
+        <v>3261.362367330581</v>
       </c>
       <c r="W38" t="n">
         <v>2965.087452944053</v>
@@ -7266,13 +7266,13 @@
         <v>1467.789043398269</v>
       </c>
       <c r="O39" t="n">
-        <v>2189.63515578637</v>
+        <v>2159.224019357719</v>
       </c>
       <c r="P39" t="n">
-        <v>2455.496192031872</v>
+        <v>2425.085055603221</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.298057652393</v>
+        <v>2552.886921223742</v>
       </c>
       <c r="R39" t="n">
         <v>2583.298057652393</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>716.6043341888452</v>
+        <v>716.6043341888451</v>
       </c>
       <c r="C40" t="n">
-        <v>604.1618921445239</v>
+        <v>604.1618921445238</v>
       </c>
       <c r="D40" t="n">
-        <v>510.5389936157738</v>
+        <v>510.5389936157736</v>
       </c>
       <c r="E40" t="n">
-        <v>419.1196409169663</v>
+        <v>419.1196409169661</v>
       </c>
       <c r="F40" t="n">
-        <v>328.7234343026415</v>
+        <v>328.7234343026414</v>
       </c>
       <c r="G40" t="n">
-        <v>217.3143800099394</v>
+        <v>217.3143800099393</v>
       </c>
       <c r="H40" t="n">
         <v>125.8131208124331</v>
@@ -7336,7 +7336,7 @@
         <v>402.1917497364985</v>
       </c>
       <c r="L40" t="n">
-        <v>744.9842753294236</v>
+        <v>744.9842753294238</v>
       </c>
       <c r="M40" t="n">
         <v>1113.790178390464</v>
@@ -7354,7 +7354,7 @@
         <v>2188.419614033844</v>
       </c>
       <c r="R40" t="n">
-        <v>2146.092034099698</v>
+        <v>2146.092034099697</v>
       </c>
       <c r="S40" t="n">
         <v>2007.415158607567</v>
@@ -7375,7 +7375,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y40" t="n">
-        <v>841.7590581354993</v>
+        <v>841.7590581354992</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1984.363745293796</v>
+        <v>1984.363745293795</v>
       </c>
       <c r="C41" t="n">
-        <v>1671.89496923697</v>
+        <v>1671.894969236969</v>
       </c>
       <c r="D41" t="n">
-        <v>1370.123011513806</v>
+        <v>1370.123011513804</v>
       </c>
       <c r="E41" t="n">
-        <v>1040.828499799147</v>
+        <v>1040.828499799146</v>
       </c>
       <c r="F41" t="n">
-        <v>686.3363358931249</v>
+        <v>686.336335893124</v>
       </c>
       <c r="G41" t="n">
-        <v>327.3118533330307</v>
+        <v>327.3118533330298</v>
       </c>
       <c r="H41" t="n">
-        <v>81.65671813272796</v>
+        <v>81.65671813272799</v>
       </c>
       <c r="I41" t="n">
         <v>78.96788554409279</v>
@@ -7412,49 +7412,49 @@
         <v>230.7654714114657</v>
       </c>
       <c r="K41" t="n">
-        <v>829.913179853311</v>
+        <v>509.009221407858</v>
       </c>
       <c r="L41" t="n">
-        <v>1277.218304821137</v>
+        <v>1304.581561536672</v>
       </c>
       <c r="M41" t="n">
-        <v>1734.033970908403</v>
+        <v>1987.555436323918</v>
       </c>
       <c r="N41" t="n">
-        <v>2635.828655605733</v>
+        <v>2889.350121021248</v>
       </c>
       <c r="O41" t="n">
-        <v>3065.187987198056</v>
+        <v>3318.709452613572</v>
       </c>
       <c r="P41" t="n">
-        <v>3715.715963363705</v>
+        <v>3650.656707689453</v>
       </c>
       <c r="Q41" t="n">
-        <v>3916.821781046383</v>
+        <v>3851.76252537213</v>
       </c>
       <c r="R41" t="n">
         <v>3948.39427720464</v>
       </c>
       <c r="S41" t="n">
-        <v>3884.439290799612</v>
+        <v>3884.439290799611</v>
       </c>
       <c r="T41" t="n">
         <v>3733.003911496239</v>
       </c>
       <c r="U41" t="n">
-        <v>3535.931513790567</v>
+        <v>3535.931513790566</v>
       </c>
       <c r="V41" t="n">
-        <v>3261.362367330582</v>
+        <v>3261.362367330581</v>
       </c>
       <c r="W41" t="n">
-        <v>2965.087452944053</v>
+        <v>2965.087452944052</v>
       </c>
       <c r="X41" t="n">
-        <v>2648.115435566559</v>
+        <v>2648.115435566558</v>
       </c>
       <c r="Y41" t="n">
-        <v>2314.469844474333</v>
+        <v>2314.469844474331</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>78.96788554409279</v>
       </c>
       <c r="J42" t="n">
-        <v>150.5596408121373</v>
+        <v>275.389765799142</v>
       </c>
       <c r="K42" t="n">
-        <v>351.0761782571581</v>
+        <v>475.9063032441628</v>
       </c>
       <c r="L42" t="n">
-        <v>667.0179492848101</v>
+        <v>1033.521039997389</v>
       </c>
       <c r="M42" t="n">
         <v>1421.567052948314</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>716.6043341888452</v>
+        <v>716.6043341888454</v>
       </c>
       <c r="C43" t="n">
-        <v>604.1618921445239</v>
+        <v>604.161892144524</v>
       </c>
       <c r="D43" t="n">
         <v>510.5389936157738</v>
       </c>
       <c r="E43" t="n">
-        <v>419.1196409169663</v>
+        <v>419.1196409169662</v>
       </c>
       <c r="F43" t="n">
-        <v>328.7234343026415</v>
+        <v>328.7234343026414</v>
       </c>
       <c r="G43" t="n">
-        <v>217.3143800099394</v>
+        <v>217.3143800099393</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8131208124331</v>
+        <v>125.8131208124332</v>
       </c>
       <c r="I43" t="n">
         <v>78.96788554409279</v>
@@ -7588,7 +7588,7 @@
         <v>2071.850402722025</v>
       </c>
       <c r="Q43" t="n">
-        <v>2188.419614033845</v>
+        <v>2188.419614033844</v>
       </c>
       <c r="R43" t="n">
         <v>2146.092034099698</v>
@@ -7612,7 +7612,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y43" t="n">
-        <v>841.7590581354993</v>
+        <v>841.7590581354996</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1671.89496923697</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.123011513806</v>
+        <v>1370.123011513805</v>
       </c>
       <c r="E44" t="n">
-        <v>1040.828499799147</v>
+        <v>1040.828499799146</v>
       </c>
       <c r="F44" t="n">
-        <v>686.3363358931249</v>
+        <v>686.3363358931244</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3118533330307</v>
+        <v>327.3118533330303</v>
       </c>
       <c r="H44" t="n">
         <v>81.65671813272793</v>
@@ -7649,34 +7649,34 @@
         <v>230.7654714114657</v>
       </c>
       <c r="K44" t="n">
-        <v>675.8607463874557</v>
+        <v>509.009221407858</v>
       </c>
       <c r="L44" t="n">
-        <v>1057.948484111324</v>
+        <v>1123.007739785577</v>
       </c>
       <c r="M44" t="n">
-        <v>1514.76415019859</v>
+        <v>1579.823405872843</v>
       </c>
       <c r="N44" t="n">
-        <v>1983.585379728056</v>
+        <v>2048.644635402309</v>
       </c>
       <c r="O44" t="n">
-        <v>2789.936890770497</v>
+        <v>2854.996146444751</v>
       </c>
       <c r="P44" t="n">
-        <v>3440.464866936146</v>
+        <v>3505.524122610399</v>
       </c>
       <c r="Q44" t="n">
-        <v>3851.762525372129</v>
+        <v>3916.821781046383</v>
       </c>
       <c r="R44" t="n">
-        <v>3948.394277204639</v>
+        <v>3948.39427720464</v>
       </c>
       <c r="S44" t="n">
-        <v>3884.439290799612</v>
+        <v>3884.439290799611</v>
       </c>
       <c r="T44" t="n">
-        <v>3733.003911496239</v>
+        <v>3733.003911496238</v>
       </c>
       <c r="U44" t="n">
         <v>3535.931513790566</v>
@@ -7734,19 +7734,19 @@
         <v>667.0179492848101</v>
       </c>
       <c r="M45" t="n">
-        <v>1055.063962235735</v>
+        <v>1183.179401661173</v>
       </c>
       <c r="N45" t="n">
-        <v>1834.292134110849</v>
+        <v>1595.904482823707</v>
       </c>
       <c r="O45" t="n">
-        <v>2189.63515578637</v>
+        <v>1951.247504499229</v>
       </c>
       <c r="P45" t="n">
-        <v>2455.496192031872</v>
+        <v>2217.10854074473</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.298057652393</v>
+        <v>2552.886921223742</v>
       </c>
       <c r="R45" t="n">
         <v>2583.298057652393</v>
@@ -7819,7 +7819,7 @@
         <v>1480.577881140502</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.576201541056</v>
+        <v>1807.576201541057</v>
       </c>
       <c r="P46" t="n">
         <v>2071.850402722025</v>
@@ -7828,7 +7828,7 @@
         <v>2188.419614033844</v>
       </c>
       <c r="R46" t="n">
-        <v>2146.092034099697</v>
+        <v>2146.092034099698</v>
       </c>
       <c r="S46" t="n">
         <v>2007.415158607567</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,13 +8298,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,7 +8547,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>107.4961204713998</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>376.4658798228876</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>213.39578716861</v>
+        <v>75.02158549643963</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>406.6119663288731</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.66410400850717</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,10 +9009,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>160.1278543980698</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>370.2051421339182</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>14.80335018642072</v>
@@ -9167,25 +9167,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>391.6308331214007</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>31.91530727861456</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>370.2051421339187</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>105.7399051213399</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>157.327916838921</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.81178506612514</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>370.2051421339187</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>370.2051421339179</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>57.6641040085099</v>
       </c>
       <c r="R23" t="n">
-        <v>63.76762622099386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>21.024053869081</v>
       </c>
       <c r="O24" t="n">
-        <v>105.7399051213401</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.80335018642072</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>223.0443367119039</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,13 +9884,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>51.60101714016986</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>105.7399051213406</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>160.127854398069</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>14.80335018642072</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>203.3586268503706</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>194.2969756689683</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>213.3957871686098</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>51.74237349398101</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>113.5994225885158</v>
+        <v>113.5994225885152</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>34.03681905766092</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>160.127854398069</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>28.29566533199028</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>27.49370093602869</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10668,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.2051421339184</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>370.2051421339189</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>252.5256346881085</v>
+        <v>118.7050975512669</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>370.2051421339184</v>
+        <v>339.4868225090185</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.80335018642072</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87614873127001</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>228.4426350504846</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>244.1141067935095</v>
       </c>
       <c r="M42" t="n">
-        <v>370.2051421339184</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>168.5368939187856</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>234.2533137917683</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>129.4095347731692</v>
       </c>
       <c r="N45" t="n">
-        <v>370.2051421339183</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>14.80335018642072</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>65.16404930159409</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.77182094705855</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.08024474680755</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H13" t="n">
         <v>146.5150500802809</v>
       </c>
       <c r="I13" t="n">
-        <v>29.75736902230517</v>
+        <v>102.3055863904067</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I16" t="n">
         <v>102.3055863904067</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.3947739469271</v>
+        <v>130.7937292173233</v>
       </c>
       <c r="U16" t="n">
-        <v>45.0160575995406</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H19" t="n">
         <v>146.5150500802809</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>85.07869643139531</v>
+        <v>84.91605401022321</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8216401039919</v>
       </c>
       <c r="D22" t="n">
-        <v>66.15656121635013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.2237672245247</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>84.91605401022309</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>58.48806607543264</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.5515939981989391</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H28" t="n">
         <v>146.5150500802809</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.3055863904067</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>220.3947739469271</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2226359673672</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>248.310911526716</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>60.82454888344074</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>6.98853249443664</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1401246.820786819</v>
+        <v>1401246.82078682</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20093.78646403308</v>
+        <v>20093.78646403305</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
-        <v>19726.01179587858</v>
+        <v>19726.01179587859</v>
       </c>
       <c r="F2" t="n">
-        <v>19726.01179587858</v>
+        <v>19726.01179587859</v>
       </c>
       <c r="G2" t="n">
         <v>19726.01179587858</v>
@@ -26341,19 +26341,19 @@
         <v>19726.01179587858</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="M2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910783</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44743.04277979978</v>
+        <v>44743.0427797998</v>
       </c>
       <c r="M3" t="n">
-        <v>185927.1870186579</v>
+        <v>185927.1870186581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336196.9482872167</v>
+        <v>336196.9482872165</v>
       </c>
       <c r="C4" t="n">
         <v>346065.6887052709</v>
@@ -26424,40 +26424,40 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>40942.36953969281</v>
+        <v>40942.36953969284</v>
       </c>
       <c r="F4" t="n">
-        <v>40942.36953969281</v>
+        <v>40942.36953969284</v>
       </c>
       <c r="G4" t="n">
-        <v>40942.36953969281</v>
+        <v>40942.36953969285</v>
       </c>
       <c r="H4" t="n">
-        <v>40942.36953969294</v>
+        <v>40942.36953969283</v>
       </c>
       <c r="I4" t="n">
-        <v>40942.36953969293</v>
+        <v>40942.36953969287</v>
       </c>
       <c r="J4" t="n">
-        <v>40942.3695396932</v>
+        <v>40942.36953969284</v>
       </c>
       <c r="K4" t="n">
-        <v>40942.36953969285</v>
+        <v>40942.36953969284</v>
       </c>
       <c r="L4" t="n">
         <v>59345.73312429641</v>
       </c>
       <c r="M4" t="n">
-        <v>83731.80533908251</v>
+        <v>83731.80533908246</v>
       </c>
       <c r="N4" t="n">
         <v>83731.80533908246</v>
       </c>
       <c r="O4" t="n">
-        <v>83731.80533908246</v>
+        <v>83731.80533908244</v>
       </c>
       <c r="P4" t="n">
-        <v>83731.80533908246</v>
+        <v>83731.80533908244</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>94523.02291287648</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="F5" t="n">
-        <v>94523.02291287648</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="G5" t="n">
-        <v>94523.02291287648</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="H5" t="n">
-        <v>94523.02291287648</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="I5" t="n">
-        <v>94523.02291287648</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="J5" t="n">
-        <v>94523.02291287686</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="K5" t="n">
         <v>94523.02291287651</v>
@@ -26500,16 +26500,16 @@
         <v>99224.90149219525</v>
       </c>
       <c r="M5" t="n">
+        <v>86081.45973560595</v>
+      </c>
+      <c r="N5" t="n">
         <v>86081.45973560594</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>86081.45973560594</v>
+      </c>
+      <c r="P5" t="n">
         <v>86081.45973560595</v>
-      </c>
-      <c r="O5" t="n">
-        <v>86081.45973560595</v>
-      </c>
-      <c r="P5" t="n">
-        <v>86081.45973560594</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445153.862118493</v>
+        <v>-445197.0878967503</v>
       </c>
       <c r="C6" t="n">
-        <v>-373820.9132224254</v>
+        <v>-373820.9132224255</v>
       </c>
       <c r="D6" t="n">
         <v>-373820.9132224255</v>
       </c>
       <c r="E6" t="n">
-        <v>-1190383.343734892</v>
+        <v>-1190463.346979965</v>
       </c>
       <c r="F6" t="n">
-        <v>-115739.3806566907</v>
+        <v>-115819.3839017636</v>
       </c>
       <c r="G6" t="n">
-        <v>-115739.3806566907</v>
+        <v>-115819.3839017636</v>
       </c>
       <c r="H6" t="n">
-        <v>-115739.3806566908</v>
+        <v>-115819.3839017636</v>
       </c>
       <c r="I6" t="n">
-        <v>-115739.3806566908</v>
+        <v>-115819.3839017636</v>
       </c>
       <c r="J6" t="n">
-        <v>-178799.3232557993</v>
+        <v>-178879.3265008698</v>
       </c>
       <c r="K6" t="n">
-        <v>-115739.3806566894</v>
+        <v>-115819.3839017636</v>
       </c>
       <c r="L6" t="n">
-        <v>-182787.6331496843</v>
+        <v>-182787.6331496844</v>
       </c>
       <c r="M6" t="n">
-        <v>-335214.4078467393</v>
+        <v>-335214.4078467395</v>
       </c>
       <c r="N6" t="n">
         <v>-149287.2208280813</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="M2" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="N2" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="O2" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="P2" t="n">
         <v>55.92880347474974</v>
@@ -26744,31 +26744,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="F3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="G3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="H3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="I3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="J3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="K3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="L3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="M3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="N3" t="n">
         <v>979.9994560906738</v>
@@ -26811,7 +26811,7 @@
         <v>1203.273598192431</v>
       </c>
       <c r="J4" t="n">
-        <v>1203.273598192437</v>
+        <v>1203.273598192431</v>
       </c>
       <c r="K4" t="n">
         <v>1203.273598192431</v>
@@ -26820,16 +26820,16 @@
         <v>1203.273598192431</v>
       </c>
       <c r="M4" t="n">
+        <v>987.09856930116</v>
+      </c>
+      <c r="N4" t="n">
         <v>987.0985693011598</v>
-      </c>
-      <c r="N4" t="n">
-        <v>987.09856930116</v>
       </c>
       <c r="O4" t="n">
         <v>987.09856930116</v>
       </c>
       <c r="P4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.09856930116</v>
       </c>
     </row>
   </sheetData>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.2593093147716</v>
+        <v>962.2593093147723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776652</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.354447248137875e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.0842804235001</v>
+        <v>746.0842804235009</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.2593093147716</v>
+        <v>962.2593093147723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>106.1120182913638</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27433,16 +27433,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>72.67087990738456</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>55.78246895567062</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>324.577917904507</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,31 +27658,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,10 +27704,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>69.2488443507992</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>48.31493882593486</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27831,7 +27831,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27901,13 +27901,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.450847870282644</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>164.1371169780443</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,22 +27938,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,22 +27980,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>159.4091277154949</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>199.2714839804113</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.112177182629239e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="C34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="D34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="E34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="F34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="G34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="H34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="I34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="J34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="K34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="L34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="M34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="N34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="O34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="P34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="R34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="S34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="T34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="U34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="V34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="W34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="X34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474975</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="C35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="D35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="E35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="F35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="G35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="H35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="I35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="T35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="U35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="V35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="W35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="X35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="C37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="D37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="E37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="F37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="G37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="H37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="I37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="J37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="K37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="L37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="M37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="N37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="O37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="P37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="R37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="S37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="T37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="U37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="V37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="W37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="X37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="K40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="L40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="N40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="O40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="P40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="R40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="S40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="C41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="D41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="E41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="F41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="G41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="H41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="I41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="T41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="U41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="V41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="W41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="X41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="C43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="D43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="E43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="F43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="G43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="H43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="I43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="J43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="K43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="L43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="M43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="N43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="O43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="P43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="R43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="S43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="T43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="U43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="V43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="W43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="X43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474969</v>
       </c>
     </row>
     <row r="44">
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.928803474749</v>
       </c>
       <c r="T44" t="n">
         <v>55.92880347474974</v>
@@ -31768,13 +31768,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M11" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N11" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O11" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P11" t="n">
         <v>566.5332534076744</v>
@@ -31783,16 +31783,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R11" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S11" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T11" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H12" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I12" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J12" t="n">
         <v>199.1525309778227</v>
@@ -31844,16 +31844,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L12" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M12" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N12" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O12" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P12" t="n">
         <v>402.5209086724128</v>
@@ -31868,7 +31868,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T12" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U12" t="n">
         <v>0.138679168314718</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H13" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I13" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J13" t="n">
         <v>124.9418978691339</v>
@@ -31929,10 +31929,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N13" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O13" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P13" t="n">
         <v>213.7362748168904</v>
@@ -31947,10 +31947,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T13" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32005,13 +32005,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M14" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N14" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O14" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P14" t="n">
         <v>566.5332534076744</v>
@@ -32020,16 +32020,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R14" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S14" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T14" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H15" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I15" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J15" t="n">
         <v>199.1525309778227</v>
@@ -32081,16 +32081,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L15" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M15" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N15" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O15" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P15" t="n">
         <v>402.5209086724128</v>
@@ -32105,7 +32105,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T15" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U15" t="n">
         <v>0.138679168314718</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H16" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I16" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J16" t="n">
         <v>124.9418978691339</v>
@@ -32166,10 +32166,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N16" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O16" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P16" t="n">
         <v>213.7362748168904</v>
@@ -32184,10 +32184,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T16" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32242,13 +32242,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M17" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N17" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O17" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P17" t="n">
         <v>566.5332534076744</v>
@@ -32257,16 +32257,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R17" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S17" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T17" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H18" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I18" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J18" t="n">
         <v>199.1525309778227</v>
@@ -32318,16 +32318,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L18" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M18" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N18" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O18" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P18" t="n">
         <v>402.5209086724128</v>
@@ -32342,7 +32342,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T18" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U18" t="n">
         <v>0.138679168314718</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H19" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I19" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J19" t="n">
         <v>124.9418978691339</v>
@@ -32403,10 +32403,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N19" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O19" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P19" t="n">
         <v>213.7362748168904</v>
@@ -32421,10 +32421,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T19" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,13 +32479,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M20" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N20" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O20" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P20" t="n">
         <v>566.5332534076744</v>
@@ -32494,16 +32494,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R20" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S20" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T20" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H21" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I21" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J21" t="n">
         <v>199.1525309778227</v>
@@ -32555,16 +32555,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L21" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M21" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N21" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O21" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P21" t="n">
         <v>402.5209086724128</v>
@@ -32579,7 +32579,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T21" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U21" t="n">
         <v>0.138679168314718</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H22" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I22" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J22" t="n">
         <v>124.9418978691339</v>
@@ -32640,10 +32640,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N22" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O22" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P22" t="n">
         <v>213.7362748168904</v>
@@ -32658,10 +32658,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T22" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32716,13 +32716,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M23" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N23" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O23" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P23" t="n">
         <v>566.5332534076744</v>
@@ -32731,16 +32731,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R23" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S23" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T23" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H24" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I24" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J24" t="n">
         <v>199.1525309778227</v>
@@ -32792,16 +32792,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L24" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M24" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N24" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O24" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P24" t="n">
         <v>402.5209086724128</v>
@@ -32816,7 +32816,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T24" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U24" t="n">
         <v>0.138679168314718</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H25" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I25" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J25" t="n">
         <v>124.9418978691339</v>
@@ -32877,10 +32877,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N25" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O25" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P25" t="n">
         <v>213.7362748168904</v>
@@ -32895,10 +32895,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T25" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32953,13 +32953,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M26" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N26" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O26" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P26" t="n">
         <v>566.5332534076744</v>
@@ -32968,16 +32968,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R26" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S26" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T26" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H27" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I27" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J27" t="n">
         <v>199.1525309778227</v>
@@ -33029,16 +33029,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L27" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M27" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N27" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O27" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P27" t="n">
         <v>402.5209086724128</v>
@@ -33053,7 +33053,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T27" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U27" t="n">
         <v>0.138679168314718</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H28" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I28" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J28" t="n">
         <v>124.9418978691339</v>
@@ -33114,10 +33114,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N28" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O28" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P28" t="n">
         <v>213.7362748168904</v>
@@ -33132,10 +33132,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T28" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33190,13 +33190,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M29" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N29" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O29" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P29" t="n">
         <v>566.5332534076744</v>
@@ -33205,16 +33205,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R29" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S29" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T29" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H30" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I30" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J30" t="n">
         <v>199.1525309778227</v>
@@ -33266,16 +33266,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L30" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M30" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N30" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O30" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P30" t="n">
         <v>402.5209086724128</v>
@@ -33290,7 +33290,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T30" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U30" t="n">
         <v>0.138679168314718</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H31" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I31" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J31" t="n">
         <v>124.9418978691339</v>
@@ -33351,10 +33351,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N31" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O31" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P31" t="n">
         <v>213.7362748168904</v>
@@ -33369,10 +33369,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T31" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33427,13 +33427,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M32" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N32" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O32" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P32" t="n">
         <v>566.5332534076744</v>
@@ -33442,16 +33442,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R32" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S32" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T32" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H33" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I33" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J33" t="n">
         <v>199.1525309778227</v>
@@ -33503,16 +33503,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L33" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M33" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N33" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O33" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P33" t="n">
         <v>402.5209086724128</v>
@@ -33527,7 +33527,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T33" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U33" t="n">
         <v>0.138679168314718</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H34" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I34" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J34" t="n">
         <v>124.9418978691339</v>
@@ -33588,10 +33588,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N34" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O34" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P34" t="n">
         <v>213.7362748168904</v>
@@ -33606,10 +33606,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T34" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33664,13 +33664,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M35" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N35" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O35" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P35" t="n">
         <v>566.5332534076744</v>
@@ -33679,16 +33679,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R35" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S35" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T35" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H36" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I36" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J36" t="n">
         <v>199.1525309778227</v>
@@ -33740,16 +33740,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L36" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M36" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N36" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O36" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P36" t="n">
         <v>402.5209086724128</v>
@@ -33764,7 +33764,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T36" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U36" t="n">
         <v>0.138679168314718</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H37" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I37" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J37" t="n">
         <v>124.9418978691339</v>
@@ -33825,10 +33825,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N37" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O37" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P37" t="n">
         <v>213.7362748168904</v>
@@ -33843,10 +33843,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T37" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,7 +35267,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>260.8270152869279</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K11" t="n">
-        <v>281.0542929256487</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L11" t="n">
         <v>803.6084243725396</v>
       </c>
       <c r="M11" t="n">
-        <v>910.9434992375457</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N11" t="n">
-        <v>910.9037219164953</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O11" t="n">
-        <v>814.4964758004455</v>
+        <v>810.1621743605879</v>
       </c>
       <c r="P11" t="n">
         <v>335.3002576524048</v>
       </c>
       <c r="Q11" t="n">
-        <v>415.4521802383667</v>
+        <v>203.1371895784621</v>
       </c>
       <c r="R11" t="n">
-        <v>31.89141026086602</v>
+        <v>31.89141026086605</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>198.4059396515648</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K12" t="n">
-        <v>202.5419570151725</v>
+        <v>467.0071940277511</v>
       </c>
       <c r="L12" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M12" t="n">
-        <v>605.3614568160087</v>
+        <v>466.9872551438384</v>
       </c>
       <c r="N12" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9323451267893</v>
+        <v>358.9323451267894</v>
       </c>
       <c r="P12" t="n">
-        <v>268.5465012580825</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q12" t="n">
         <v>129.092793556082</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K13" t="n">
         <v>183.0484270075402</v>
@@ -35577,7 +35577,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N13" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O13" t="n">
         <v>274.3725302631839</v>
@@ -35586,7 +35586,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>153.3308948155281</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K14" t="n">
         <v>605.1997054968135</v>
       </c>
       <c r="L14" t="n">
-        <v>803.6084243725396</v>
+        <v>792.5591761509622</v>
       </c>
       <c r="M14" t="n">
-        <v>461.4299657447132</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N14" t="n">
-        <v>910.9037219164953</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O14" t="n">
-        <v>814.4964758004455</v>
+        <v>433.6962945377003</v>
       </c>
       <c r="P14" t="n">
         <v>657.0989658238875</v>
       </c>
       <c r="Q14" t="n">
-        <v>260.8012935869692</v>
+        <v>203.1371895784621</v>
       </c>
       <c r="R14" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K15" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L15" t="n">
-        <v>479.2609564462032</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M15" t="n">
-        <v>391.9656696473988</v>
+        <v>762.170811781317</v>
       </c>
       <c r="N15" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9323451267893</v>
+        <v>358.9323451267894</v>
       </c>
       <c r="P15" t="n">
-        <v>268.5465012580825</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K16" t="n">
         <v>183.0484270075402</v>
@@ -35814,7 +35814,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N16" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O16" t="n">
         <v>274.3725302631839</v>
@@ -35823,7 +35823,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>605.1997054968135</v>
       </c>
       <c r="L17" t="n">
-        <v>803.6084243725396</v>
+        <v>385.9472098220892</v>
       </c>
       <c r="M17" t="n">
-        <v>853.0607988661138</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N17" t="n">
-        <v>473.5567975045112</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O17" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P17" t="n">
-        <v>657.0989658238875</v>
+        <v>335.3002576524048</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.137189578462</v>
+        <v>415.4521802383667</v>
       </c>
       <c r="R17" t="n">
-        <v>31.89141026086602</v>
+        <v>63.80671753948062</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K18" t="n">
-        <v>202.5419570151725</v>
+        <v>467.0071940277511</v>
       </c>
       <c r="L18" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M18" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N18" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O18" t="n">
-        <v>729.137487260708</v>
+        <v>358.9323451267894</v>
       </c>
       <c r="P18" t="n">
-        <v>268.5465012580825</v>
+        <v>374.2864063794224</v>
       </c>
       <c r="Q18" t="n">
         <v>129.092793556082</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K19" t="n">
         <v>183.0484270075402</v>
@@ -36051,7 +36051,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N19" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O19" t="n">
         <v>274.3725302631839</v>
@@ -36060,7 +36060,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>153.3308948155281</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K20" t="n">
-        <v>605.1997054968135</v>
+        <v>281.0542929256488</v>
       </c>
       <c r="L20" t="n">
-        <v>385.9472098220892</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M20" t="n">
-        <v>910.9434992375457</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N20" t="n">
-        <v>910.9037219164953</v>
+        <v>630.8847143434323</v>
       </c>
       <c r="O20" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P20" t="n">
         <v>657.0989658238875</v>
       </c>
       <c r="Q20" t="n">
-        <v>228.9489746445871</v>
+        <v>415.4521802383667</v>
       </c>
       <c r="R20" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K21" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L21" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M21" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N21" t="n">
-        <v>787.0991635102162</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O21" t="n">
-        <v>358.9323451267893</v>
+        <v>729.1374872607073</v>
       </c>
       <c r="P21" t="n">
-        <v>268.5465012580825</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q21" t="n">
         <v>129.092793556082</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K22" t="n">
         <v>183.0484270075402</v>
@@ -36288,7 +36288,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N22" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O22" t="n">
         <v>274.3725302631839</v>
@@ -36297,7 +36297,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>322.4275099876019</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K23" t="n">
         <v>605.1997054968135</v>
@@ -36364,22 +36364,22 @@
         <v>803.6084243725396</v>
       </c>
       <c r="M23" t="n">
-        <v>461.4299657447132</v>
+        <v>461.4299657447133</v>
       </c>
       <c r="N23" t="n">
-        <v>910.9037219164953</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O23" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P23" t="n">
-        <v>335.3002576524048</v>
+        <v>657.0989658238875</v>
       </c>
       <c r="Q23" t="n">
-        <v>415.4521802383667</v>
+        <v>260.801293586972</v>
       </c>
       <c r="R23" t="n">
-        <v>95.65903648185989</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K24" t="n">
-        <v>467.0071940277511</v>
+        <v>202.5419570151725</v>
       </c>
       <c r="L24" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M24" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N24" t="n">
-        <v>416.8940213762975</v>
+        <v>437.9180752453786</v>
       </c>
       <c r="O24" t="n">
-        <v>464.6722502481294</v>
+        <v>358.9323451267894</v>
       </c>
       <c r="P24" t="n">
-        <v>268.5465012580825</v>
+        <v>587.0092698980197</v>
       </c>
       <c r="Q24" t="n">
         <v>129.092793556082</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>30.7183196249001</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K25" t="n">
         <v>183.0484270075402</v>
@@ -36525,7 +36525,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N25" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O25" t="n">
         <v>274.3725302631839</v>
@@ -36534,7 +36534,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>322.4275099876019</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K26" t="n">
-        <v>605.1997054968135</v>
+        <v>504.0986296375527</v>
       </c>
       <c r="L26" t="n">
         <v>803.6084243725396</v>
       </c>
       <c r="M26" t="n">
-        <v>910.9434992375457</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N26" t="n">
-        <v>525.157814644681</v>
+        <v>473.5567975045113</v>
       </c>
       <c r="O26" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P26" t="n">
-        <v>335.3002576524048</v>
+        <v>657.0989658238875</v>
       </c>
       <c r="Q26" t="n">
         <v>415.4521802383667</v>
       </c>
       <c r="R26" t="n">
-        <v>31.89141026086602</v>
+        <v>31.89141026086605</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>178.0548094324966</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K27" t="n">
-        <v>467.0071940277511</v>
+        <v>202.5419570151725</v>
       </c>
       <c r="L27" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M27" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N27" t="n">
-        <v>416.8940213762975</v>
+        <v>577.0218757743665</v>
       </c>
       <c r="O27" t="n">
-        <v>358.9323451267893</v>
+        <v>358.9323451267894</v>
       </c>
       <c r="P27" t="n">
-        <v>268.5465012580825</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q27" t="n">
-        <v>129.092793556082</v>
+        <v>339.1700812919311</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K28" t="n">
         <v>183.0484270075402</v>
@@ -36762,7 +36762,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N28" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O28" t="n">
         <v>274.3725302631839</v>
@@ -36771,7 +36771,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>153.3308948155281</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K29" t="n">
-        <v>281.0542929256487</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L29" t="n">
-        <v>589.3058366724598</v>
+        <v>385.9472098220892</v>
       </c>
       <c r="M29" t="n">
-        <v>910.9434992375457</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N29" t="n">
-        <v>910.9037219164953</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O29" t="n">
-        <v>814.4964758004455</v>
+        <v>627.9932702066686</v>
       </c>
       <c r="P29" t="n">
         <v>657.0989658238875</v>
@@ -36853,7 +36853,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R29" t="n">
-        <v>31.89141026086602</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>198.4059396515648</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K30" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L30" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M30" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N30" t="n">
-        <v>630.2898085449073</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O30" t="n">
-        <v>358.9323451267893</v>
+        <v>410.6747186207704</v>
       </c>
       <c r="P30" t="n">
-        <v>268.5465012580825</v>
+        <v>587.0092698980197</v>
       </c>
       <c r="Q30" t="n">
         <v>129.092793556082</v>
       </c>
       <c r="R30" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K31" t="n">
         <v>183.0484270075402</v>
@@ -36999,7 +36999,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N31" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O31" t="n">
         <v>274.3725302631839</v>
@@ -37008,7 +37008,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>803.6084243725396</v>
       </c>
       <c r="M32" t="n">
-        <v>461.4299657447132</v>
+        <v>461.4299657447133</v>
       </c>
       <c r="N32" t="n">
-        <v>587.1562200930269</v>
+        <v>587.1562200930265</v>
       </c>
       <c r="O32" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P32" t="n">
         <v>657.0989658238875</v>
@@ -37090,7 +37090,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R32" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>198.4059396515648</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K33" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L33" t="n">
-        <v>353.1699211057943</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M33" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N33" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O33" t="n">
-        <v>358.9323451267893</v>
+        <v>519.0601995248584</v>
       </c>
       <c r="P33" t="n">
-        <v>268.5465012580825</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q33" t="n">
         <v>339.1700812919311</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.51152122721084</v>
+        <v>87.51152122721089</v>
       </c>
       <c r="K34" t="n">
-        <v>238.9772304822899</v>
+        <v>238.97723048229</v>
       </c>
       <c r="L34" t="n">
         <v>346.2550763564901</v>
       </c>
       <c r="M34" t="n">
-        <v>372.531215213172</v>
+        <v>372.5312152131721</v>
       </c>
       <c r="N34" t="n">
-        <v>370.4926290404425</v>
+        <v>370.4926290404427</v>
       </c>
       <c r="O34" t="n">
-        <v>330.3013337379336</v>
+        <v>330.3013337379337</v>
       </c>
       <c r="P34" t="n">
-        <v>266.9436375565336</v>
+        <v>266.9436375565337</v>
       </c>
       <c r="Q34" t="n">
         <v>117.7466780927471</v>
@@ -37306,28 +37306,28 @@
         <v>322.4275099876019</v>
       </c>
       <c r="K35" t="n">
-        <v>309.349958257639</v>
+        <v>281.0542929256488</v>
       </c>
       <c r="L35" t="n">
-        <v>803.6084243725396</v>
+        <v>413.4409107581179</v>
       </c>
       <c r="M35" t="n">
-        <v>461.4299657447132</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N35" t="n">
-        <v>473.5567975045112</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O35" t="n">
-        <v>433.6962945377002</v>
+        <v>433.6962945377003</v>
       </c>
       <c r="P35" t="n">
-        <v>657.0989658238875</v>
+        <v>335.3002576524048</v>
       </c>
       <c r="Q35" t="n">
-        <v>415.4521802383667</v>
+        <v>203.1371895784621</v>
       </c>
       <c r="R35" t="n">
-        <v>31.89141026086602</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K36" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L36" t="n">
-        <v>319.1331020481334</v>
+        <v>689.3382441820519</v>
       </c>
       <c r="M36" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N36" t="n">
-        <v>787.0991635102164</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O36" t="n">
-        <v>358.9323451267893</v>
+        <v>358.9323451267894</v>
       </c>
       <c r="P36" t="n">
-        <v>268.5465012580825</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q36" t="n">
         <v>129.092793556082</v>
@@ -37470,7 +37470,7 @@
         <v>346.2550763564901</v>
       </c>
       <c r="M37" t="n">
-        <v>372.5312152131721</v>
+        <v>372.531215213172</v>
       </c>
       <c r="N37" t="n">
         <v>370.4926290404426</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>322.4275099876019</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K38" t="n">
         <v>281.0542929256488</v>
@@ -37549,22 +37549,22 @@
         <v>385.9472098220892</v>
       </c>
       <c r="M38" t="n">
-        <v>910.9434992375458</v>
+        <v>461.4299657447133</v>
       </c>
       <c r="N38" t="n">
-        <v>473.5567975045113</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O38" t="n">
-        <v>433.6962945377003</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P38" t="n">
-        <v>587.8258923405133</v>
+        <v>454.0053552036717</v>
       </c>
       <c r="Q38" t="n">
         <v>415.4521802383667</v>
       </c>
       <c r="R38" t="n">
-        <v>97.60783013384849</v>
+        <v>31.89141026086605</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>416.8940213762976</v>
       </c>
       <c r="O39" t="n">
-        <v>729.1374872607078</v>
+        <v>698.4191676358079</v>
       </c>
       <c r="P39" t="n">
         <v>268.5465012580826</v>
@@ -37643,7 +37643,7 @@
         <v>129.092793556082</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>30.7183196249001</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.51152122721085</v>
+        <v>87.51152122721088</v>
       </c>
       <c r="K40" t="n">
-        <v>238.9772304822899</v>
+        <v>238.97723048229</v>
       </c>
       <c r="L40" t="n">
         <v>346.2550763564901</v>
@@ -37710,7 +37710,7 @@
         <v>372.531215213172</v>
       </c>
       <c r="N40" t="n">
-        <v>370.4926290404426</v>
+        <v>370.4926290404427</v>
       </c>
       <c r="O40" t="n">
         <v>330.3013337379336</v>
@@ -37780,13 +37780,13 @@
         <v>153.3308948155282</v>
       </c>
       <c r="K41" t="n">
-        <v>605.1997054968135</v>
+        <v>281.0542929256488</v>
       </c>
       <c r="L41" t="n">
-        <v>451.8233585533592</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M41" t="n">
-        <v>461.4299657447133</v>
+        <v>689.8726007951979</v>
       </c>
       <c r="N41" t="n">
         <v>910.9037219164954</v>
@@ -37795,13 +37795,13 @@
         <v>433.6962945377003</v>
       </c>
       <c r="P41" t="n">
-        <v>657.0989658238875</v>
+        <v>335.3002576524048</v>
       </c>
       <c r="Q41" t="n">
         <v>203.1371895784621</v>
       </c>
       <c r="R41" t="n">
-        <v>31.89141026086605</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>72.31490431115603</v>
+        <v>198.4059396515649</v>
       </c>
       <c r="K42" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L42" t="n">
-        <v>319.1331020481335</v>
+        <v>563.247208841643</v>
       </c>
       <c r="M42" t="n">
-        <v>762.1708117813172</v>
+        <v>391.9656696473988</v>
       </c>
       <c r="N42" t="n">
         <v>416.8940213762976</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.51152122721086</v>
+        <v>87.51152122721084</v>
       </c>
       <c r="K43" t="n">
         <v>238.9772304822899</v>
@@ -38017,10 +38017,10 @@
         <v>153.3308948155282</v>
       </c>
       <c r="K44" t="n">
-        <v>449.5911868444344</v>
+        <v>281.0542929256488</v>
       </c>
       <c r="L44" t="n">
-        <v>385.9472098220892</v>
+        <v>620.2005236138575</v>
       </c>
       <c r="M44" t="n">
         <v>461.4299657447133</v>
@@ -38038,7 +38038,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R44" t="n">
-        <v>97.60783013384849</v>
+        <v>31.89141026086605</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>319.1331020481335</v>
       </c>
       <c r="M45" t="n">
-        <v>391.9656696473988</v>
+        <v>521.375204420568</v>
       </c>
       <c r="N45" t="n">
-        <v>787.0991635102159</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O45" t="n">
         <v>358.9323451267894</v>
@@ -38114,10 +38114,10 @@
         <v>268.5465012580826</v>
       </c>
       <c r="Q45" t="n">
-        <v>129.092793556082</v>
+        <v>339.1700812919311</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>30.7183196249001</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
